--- a/Jogos_do_Dia/2023-06-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -643,13 +643,13 @@
         <v>42</v>
       </c>
       <c r="G2">
+        <v>2.1</v>
+      </c>
+      <c r="H2">
         <v>3.2</v>
       </c>
-      <c r="H2">
-        <v>2.65</v>
-      </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -664,10 +664,10 @@
         <v>3.5</v>
       </c>
       <c r="N2">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O2">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P2">
         <v>1.36</v>

--- a/Jogos_do_Dia/2023-06-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -136,19 +136,19 @@
     <t>Barnechea</t>
   </si>
   <si>
+    <t>Jacuipense</t>
+  </si>
+  <si>
     <t>Iguatu</t>
   </si>
   <si>
-    <t>Jacuipense</t>
-  </si>
-  <si>
     <t>Santiago Morning</t>
   </si>
   <si>
+    <t>Falcon</t>
+  </si>
+  <si>
     <t>Sousa</t>
-  </si>
-  <si>
-    <t>Falcon</t>
   </si>
 </sst>
 </file>
@@ -643,13 +643,13 @@
         <v>42</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>3.72</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -664,10 +664,10 @@
         <v>3.5</v>
       </c>
       <c r="N2">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="O2">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="P2">
         <v>1.36</v>
@@ -750,67 +750,67 @@
         <v>43</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="Y3">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="Z3">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AA3">
-        <v>3.58</v>
+        <v>3.22</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -857,67 +857,67 @@
         <v>44</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="Y4">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="Z4">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AA4">
-        <v>3.22</v>
+        <v>3.58</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH4">
         <v>0</v>
